--- a/2024/shuffle-architecute/Teste10/content/results/metrics_5_6.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_5_6.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9543035342990497</v>
+        <v>0.9325402091251865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.744441381550857</v>
+        <v>0.7468870961310148</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2151236002021542</v>
+        <v>0.7987789736296484</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9034464311987204</v>
+        <v>0.6161951615579704</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8519971634779895</v>
+        <v>0.7715026107887957</v>
       </c>
       <c r="G2" t="n">
-        <v>0.191778302192688</v>
+        <v>0.2831143140792847</v>
       </c>
       <c r="H2" t="n">
-        <v>1.708921670913696</v>
+        <v>1.692567110061646</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2304613292217255</v>
+        <v>0.1350127458572388</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2743037641048431</v>
+        <v>0.5232353806495667</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2523824870586395</v>
+        <v>0.3291242122650146</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9540015478070103</v>
+        <v>0.9322642652333595</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7437821194586529</v>
+        <v>0.745982775196532</v>
       </c>
       <c r="D3" t="n">
-        <v>0.234018540257502</v>
+        <v>0.8019501907529143</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9036587678013125</v>
+        <v>0.6258697146892724</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8538008102789278</v>
+        <v>0.7768197168167827</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1930456608533859</v>
+        <v>0.2842723727226257</v>
       </c>
       <c r="H3" t="n">
-        <v>1.713330268859863</v>
+        <v>1.698614358901978</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2249132543802261</v>
+        <v>0.1328849643468857</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2737005054950714</v>
+        <v>0.5100461840629578</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2493068128824234</v>
+        <v>0.3214655220508575</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9536884832526968</v>
+        <v>0.9319699355554005</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7431112294373075</v>
+        <v>0.745060775505902</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2530069144723369</v>
+        <v>0.8050988176080449</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9038596464210447</v>
+        <v>0.6355382157882</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8556028913694984</v>
+        <v>0.7821284931101682</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1943595260381699</v>
+        <v>0.2855076193809509</v>
       </c>
       <c r="H4" t="n">
-        <v>1.717816472053528</v>
+        <v>1.704779863357544</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2193377315998077</v>
+        <v>0.1307723373174667</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2731298208236694</v>
+        <v>0.4968652725219727</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2462337911128998</v>
+        <v>0.3138188421726227</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9533640924424619</v>
+        <v>0.9316566925239662</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7424285444239345</v>
+        <v>0.7441207545163548</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2720856291696724</v>
+        <v>0.8082225361856448</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9040487161972891</v>
+        <v>0.6451966211859813</v>
       </c>
       <c r="F5" t="n">
-        <v>0.857402989415244</v>
+        <v>0.7874268773449156</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1957209408283234</v>
+        <v>0.2868222296237946</v>
       </c>
       <c r="H5" t="n">
-        <v>1.722381472587585</v>
+        <v>1.711065769195557</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2137356996536255</v>
+        <v>0.1286764144897461</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2725926637649536</v>
+        <v>0.4836980998516083</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2431641817092896</v>
+        <v>0.3061871528625488</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9530279159716926</v>
+        <v>0.9313240273989751</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7417338716544888</v>
+        <v>0.7431622766906923</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2912441005090431</v>
+        <v>0.8113188221804226</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9042255447495648</v>
+        <v>0.6548442423996219</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8591997144803627</v>
+        <v>0.7927134747897089</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1971317827701569</v>
+        <v>0.2882183790206909</v>
       </c>
       <c r="H6" t="n">
-        <v>1.7270268201828</v>
+        <v>1.717474937438965</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2081102430820465</v>
+        <v>0.1265989243984222</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2720903158187866</v>
+        <v>0.4705456793308258</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2401002943515778</v>
+        <v>0.2985724210739136</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9526796960623064</v>
+        <v>0.9309712407086921</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7410269429659209</v>
+        <v>0.7421849177593136</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3104755291807635</v>
+        <v>0.8143839134249586</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9043896660137873</v>
+        <v>0.6644756441067237</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8609921678727981</v>
+        <v>0.7979853982272674</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1985931843519211</v>
+        <v>0.2896988987922668</v>
       </c>
       <c r="H7" t="n">
-        <v>1.731754064559937</v>
+        <v>1.724010705947876</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2024633586406708</v>
+        <v>0.1245423406362534</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2716240584850311</v>
+        <v>0.4574153125286102</v>
       </c>
       <c r="K7" t="n">
-        <v>0.237043708562851</v>
+        <v>0.2909788191318512</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9523188766536935</v>
+        <v>0.9305977736976262</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7403076114155185</v>
+        <v>0.7411882588618333</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3297674661382444</v>
+        <v>0.8174148585996746</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9045406066881998</v>
+        <v>0.674089109646991</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8627788485453423</v>
+        <v>0.803240736062211</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2001074552536011</v>
+        <v>0.2912662923336029</v>
       </c>
       <c r="H8" t="n">
-        <v>1.736564159393311</v>
+        <v>1.730675339698792</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1967987269163132</v>
+        <v>0.1225086748600006</v>
       </c>
       <c r="J8" t="n">
-        <v>0.271195262670517</v>
+        <v>0.444309413433075</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2339969724416733</v>
+        <v>0.2834090888500214</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9519452530632997</v>
+        <v>0.9302029227613317</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7395756467503671</v>
+        <v>0.7401718651327254</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3491118756714822</v>
+        <v>0.8204073252304979</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9046778451379426</v>
+        <v>0.6836799148315769</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8645586011970894</v>
+        <v>0.8084764053558038</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2016754895448685</v>
+        <v>0.2929233610630035</v>
       </c>
       <c r="H9" t="n">
-        <v>1.741459012031555</v>
+        <v>1.737472057342529</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1911186873912811</v>
+        <v>0.1205008253455162</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2708053588867188</v>
+        <v>0.4312344193458557</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2309620380401611</v>
+        <v>0.2758677303791046</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9515581991716574</v>
+        <v>0.9297859887788336</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7388308472907532</v>
+        <v>0.7391352391276944</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3684924916923414</v>
+        <v>0.823359518107205</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9048010972113922</v>
+        <v>0.6932451975566176</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8663298580632133</v>
+        <v>0.8136907435490977</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2032998651266098</v>
+        <v>0.2946732044219971</v>
       </c>
       <c r="H10" t="n">
-        <v>1.746439337730408</v>
+        <v>1.744403839111328</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1854279935359955</v>
+        <v>0.1185200065374374</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2704552114009857</v>
+        <v>0.4181942045688629</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2279416024684906</v>
+        <v>0.2683570683002472</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9511573658955712</v>
+        <v>0.9293463708912837</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7380730179406321</v>
+        <v>0.7380779137452124</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3878976315360882</v>
+        <v>0.8262661521878936</v>
       </c>
       <c r="E11" t="n">
-        <v>0.90490979197249</v>
+        <v>0.7027802911029168</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8680910706626329</v>
+        <v>0.8188800584366005</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2049820721149445</v>
+        <v>0.2965181469917297</v>
       </c>
       <c r="H11" t="n">
-        <v>1.751507043838501</v>
+        <v>1.751474142074585</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1797301173210144</v>
+        <v>0.1165697425603867</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2701463997364044</v>
+        <v>0.4051951467990875</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2249382734298706</v>
+        <v>0.2608824372291565</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9507422760401947</v>
+        <v>0.9288832985585049</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7373019469414481</v>
+        <v>0.7369993982741532</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4073129189020224</v>
+        <v>0.8291236793273766</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9050036006859618</v>
+        <v>0.7122821230857581</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8698407886695738</v>
+        <v>0.8240421357374988</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2067241221666336</v>
+        <v>0.2984615564346313</v>
       </c>
       <c r="H12" t="n">
-        <v>1.756663084030151</v>
+        <v>1.758686304092407</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1740292459726334</v>
+        <v>0.1146524399518967</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2698799073696136</v>
+        <v>0.3922414779663086</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2219545841217041</v>
+        <v>0.2534470856189728</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9503124538647681</v>
+        <v>0.9283960053167526</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7365174280161071</v>
+        <v>0.7358991967401418</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4267207749806832</v>
+        <v>0.8319275507405913</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9050820868786867</v>
+        <v>0.7217451329535578</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8715770857661467</v>
+        <v>0.8291735397074981</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2085279822349548</v>
+        <v>0.3005066215991974</v>
       </c>
       <c r="H13" t="n">
-        <v>1.761909127235413</v>
+        <v>1.766043305397034</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1683305650949478</v>
+        <v>0.1127711310982704</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2696569263935089</v>
+        <v>0.3793406784534454</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2189937382936478</v>
+        <v>0.2460558712482452</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.949867396061631</v>
+        <v>0.9278837662585093</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7357192657242906</v>
+        <v>0.7347767378518799</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4461060253716942</v>
+        <v>0.8346742600672595</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9051449410928001</v>
+        <v>0.7311659362093086</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8732983971209423</v>
+        <v>0.8342715059654972</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2103958129882812</v>
+        <v>0.3026563823223114</v>
       </c>
       <c r="H14" t="n">
-        <v>1.76724648475647</v>
+        <v>1.773549199104309</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1626385152339935</v>
+        <v>0.1109281778335571</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2694783806800842</v>
+        <v>0.3664974272251129</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2160584628582001</v>
+        <v>0.2387128472328186</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9494065685409756</v>
+        <v>0.9273457953211053</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7349072354267652</v>
+        <v>0.7336315178100956</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4654476482961022</v>
+        <v>0.8373583696910042</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9051915076505245</v>
+        <v>0.7405390381929851</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8750024040977873</v>
+        <v>0.8393323598186471</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2123297899961472</v>
+        <v>0.3049141466617584</v>
       </c>
       <c r="H15" t="n">
-        <v>1.772676706314087</v>
+        <v>1.781207323074341</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1569592952728271</v>
+        <v>0.1091272309422493</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2693460881710052</v>
+        <v>0.3537192344665527</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2131526917219162</v>
+        <v>0.2314232587814331</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9489294715113574</v>
+        <v>0.9267812629819883</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7340811820173865</v>
+        <v>0.7324629624930036</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4847271058768277</v>
+        <v>0.8399756288346117</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9052218456236605</v>
+        <v>0.7498597721426945</v>
       </c>
       <c r="F16" t="n">
-        <v>0.876687547597701</v>
+        <v>0.8443529017996494</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2143320888280869</v>
+        <v>0.3072833716869354</v>
       </c>
       <c r="H16" t="n">
-        <v>1.778200387954712</v>
+        <v>1.789021492004395</v>
       </c>
       <c r="I16" t="n">
-        <v>0.151298314332962</v>
+        <v>0.1073711365461349</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2692598700523376</v>
+        <v>0.3410124182701111</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2102790921926498</v>
+        <v>0.22419174015522</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9484354875129202</v>
+        <v>0.9261893347868966</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7332408440400182</v>
+        <v>0.7312704786340295</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5039221813660033</v>
+        <v>0.8425206152516926</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9052353148137268</v>
+        <v>0.7591227596132735</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8783513718243687</v>
+        <v>0.8493292640820941</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2164051979780197</v>
+        <v>0.3097675442695618</v>
       </c>
       <c r="H17" t="n">
-        <v>1.783819794654846</v>
+        <v>1.796995639801025</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1456620991230011</v>
+        <v>0.1056635305285454</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2692216336727142</v>
+        <v>0.3283843398094177</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2074418514966965</v>
+        <v>0.2170238792896271</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9479240952947884</v>
+        <v>0.9255690855784083</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7323860807024429</v>
+        <v>0.7300534244184198</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5230125146977211</v>
+        <v>0.8449891935521084</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9052317139809115</v>
+        <v>0.7683221849581802</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8799919621860995</v>
+        <v>0.8542576893283981</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2185514271259308</v>
+        <v>0.3123705983161926</v>
       </c>
       <c r="H18" t="n">
-        <v>1.789535522460938</v>
+        <v>1.805134057998657</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1400566697120667</v>
+        <v>0.1040071994066238</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2692318558692932</v>
+        <v>0.3158428966999054</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2046442329883575</v>
+        <v>0.209925040602684</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9473947688489588</v>
+        <v>0.9249197007097287</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7315166811257081</v>
+        <v>0.7288112414902291</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5419735443841809</v>
+        <v>0.8473751534583813</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9052107609097838</v>
+        <v>0.7774524252867645</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8816069032354519</v>
+        <v>0.8591341178808247</v>
       </c>
       <c r="G19" t="n">
-        <v>0.220772922039032</v>
+        <v>0.3150959312915802</v>
       </c>
       <c r="H19" t="n">
-        <v>1.795349359512329</v>
+        <v>1.813440561294556</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1344891786575317</v>
+        <v>0.1024062931537628</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2692913711071014</v>
+        <v>0.3033957481384277</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2018903493881226</v>
+        <v>0.2029011100530624</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9468467628610661</v>
+        <v>0.9242402301122352</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7306324454699877</v>
+        <v>0.7275432574491159</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5607802200866627</v>
+        <v>0.8496733858396699</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9051721219477552</v>
+        <v>0.7865074584279343</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8831938997374477</v>
+        <v>0.8639545978101124</v>
       </c>
       <c r="G20" t="n">
-        <v>0.223072737455368</v>
+        <v>0.3179475367069244</v>
       </c>
       <c r="H20" t="n">
-        <v>1.801262140274048</v>
+        <v>1.821919441223145</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1289670169353485</v>
+        <v>0.1008642539381981</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2694011628627777</v>
+        <v>0.2910511791706085</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1991841197013855</v>
+        <v>0.195957750082016</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9462795814096253</v>
+        <v>0.9235296373915094</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7297331734409516</v>
+        <v>0.726248851094935</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5794077951645852</v>
+        <v>0.8518782357767213</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9051156918854264</v>
+        <v>0.7954805199098992</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8847506584651651</v>
+        <v>0.8687145503117267</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2254530936479568</v>
+        <v>0.3209297657012939</v>
       </c>
       <c r="H21" t="n">
-        <v>1.807275533676147</v>
+        <v>1.830575227737427</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1234974563121796</v>
+        <v>0.09938487410545349</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2695614695549011</v>
+        <v>0.2788183391094208</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1965294480323792</v>
+        <v>0.1891016066074371</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.945692568346279</v>
+        <v>0.9227870635954489</v>
       </c>
       <c r="C22" t="n">
-        <v>0.728818685320107</v>
+        <v>0.724927286061948</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5978306221912442</v>
+        <v>0.8539836091473606</v>
       </c>
       <c r="E22" t="n">
-        <v>0.905041120393598</v>
+        <v>0.8043649065579985</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8862746493065902</v>
+        <v>0.8734093255803257</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2279166728258133</v>
+        <v>0.3240461647510529</v>
       </c>
       <c r="H22" t="n">
-        <v>1.813390731811523</v>
+        <v>1.839412450790405</v>
       </c>
       <c r="I22" t="n">
-        <v>0.118087999522686</v>
+        <v>0.09797223657369614</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2697733044624329</v>
+        <v>0.2667063772678375</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1939306408166885</v>
+        <v>0.1823393106460571</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9450850736118311</v>
+        <v>0.9220113670761851</v>
       </c>
       <c r="C23" t="n">
-        <v>0.727888806744017</v>
+        <v>0.7235778809692069</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6160202542457411</v>
+        <v>0.8559841320215728</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9049481326584218</v>
+        <v>0.8131537306517483</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8877632006918454</v>
+        <v>0.8780344934552731</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2304661870002747</v>
+        <v>0.3273015916347504</v>
       </c>
       <c r="H23" t="n">
-        <v>1.819608807563782</v>
+        <v>1.848435878753662</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1127470284700394</v>
+        <v>0.09662994742393494</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2700375020503998</v>
+        <v>0.2547247111797333</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1913923025131226</v>
+        <v>0.1756772994995117</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9444564183758893</v>
+        <v>0.9212015786689507</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7269433345515386</v>
+        <v>0.7221999010908</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6339487344475152</v>
+        <v>0.8578733655470245</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9048368474138325</v>
+        <v>0.8218396983485505</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8892140847275887</v>
+        <v>0.8825850010238985</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2331045120954514</v>
+        <v>0.3307000994682312</v>
       </c>
       <c r="H24" t="n">
-        <v>1.825931191444397</v>
+        <v>1.857650518417358</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1074827313423157</v>
+        <v>0.0953623354434967</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2703536450862885</v>
+        <v>0.2428832650184631</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1889181584119797</v>
+        <v>0.1691228002309799</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9438059799827753</v>
+        <v>0.9203566162256234</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7259820787099913</v>
+        <v>0.7207926213771356</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6515889599183415</v>
+        <v>0.8596451600586702</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9047067859874443</v>
+        <v>0.830414725600836</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8906244392081565</v>
+        <v>0.8870556983147381</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2358342707157135</v>
+        <v>0.3342462480068207</v>
       </c>
       <c r="H25" t="n">
-        <v>1.832359075546265</v>
+        <v>1.867061018943787</v>
       </c>
       <c r="I25" t="n">
-        <v>0.102303072810173</v>
+        <v>0.09417352080345154</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2707231640815735</v>
+        <v>0.2311930656433105</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1865131556987762</v>
+        <v>0.1626832783222198</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9431330771532485</v>
+        <v>0.9194753026429736</v>
       </c>
       <c r="C26" t="n">
-        <v>0.725004861313761</v>
+        <v>0.719355240285819</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6689117026859742</v>
+        <v>0.8612934635740457</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9045582056069832</v>
+        <v>0.8388709098206686</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8919921178806465</v>
+        <v>0.8914413715705927</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2386583089828491</v>
+        <v>0.337944895029068</v>
       </c>
       <c r="H26" t="n">
-        <v>1.83889365196228</v>
+        <v>1.876672744750977</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09721663594245911</v>
+        <v>0.09306756407022476</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2711452841758728</v>
+        <v>0.2196648716926575</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1841809153556824</v>
+        <v>0.156366229057312</v>
       </c>
     </row>
   </sheetData>
